--- a/group-reports/tables/shahriar-1-2-tests-first-results-test-5.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-first-results-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>644 usec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>12283k</t>
+          <t>12283k usec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1222478.70</t>
+          <t>1222478.70 usec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1839 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>12516k</t>
+          <t>12516k usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>942546.03</t>
+          <t>942546.03 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>404 usec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>5228.2k</t>
+          <t>5228.2k usec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>718579.80</t>
+          <t>718579.80 usec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1806 usec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>6480.3k</t>
+          <t>6480.3k usec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>1856615.58</t>
+          <t>1856615.58 usec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1827 usec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>8409.4k</t>
+          <t>8409.4k usec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>1248472.63</t>
+          <t>1248472.63 usec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1361 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>8460.8k</t>
+          <t>8460.8k usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>103743.50</t>
+          <t>103743.50 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>632 usec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>5207.8k</t>
+          <t>5207.8k usec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>719239.21</t>
+          <t>719239.21 usec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>6680 msec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>1870.33</t>
+          <t>1870.33 msec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9 msec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>3174</t>
+          <t>3174 msec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>1276.35</t>
+          <t>1276.35 msec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1775 usec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>1696.7k</t>
+          <t>1696.7k usec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>6417.59</t>
+          <t>6417.59 usec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 msec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>2414 msec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>1276.09</t>
+          <t>1276.09 msec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1615 usec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>1079.8k</t>
+          <t>1079.8k usec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>6875.05</t>
+          <t>6875.05 usec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 msec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>2643 msec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>1271.05</t>
+          <t>1271.05 msec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2396</t>
+          <t>2396 msec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>19.15</t>
+          <t>19.15 msec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>634 usec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>5010.5k</t>
+          <t>5010.5k usec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>989279.56</t>
+          <t>989279.56 usec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6141 msec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>971.99</t>
+          <t>971.99 msec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74 msec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2824 msec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>1273.74</t>
+          <t>1273.74 msec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1907 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>1807.9k</t>
+          <t>1807.9k usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>12720.64</t>
+          <t>12720.64 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2705 msec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>1271.44</t>
+          <t>1271.44 msec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1280 msec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>17.60 msec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>346 usec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>5199.3k</t>
+          <t>5199.3k usec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>763255.80</t>
+          <t>763255.80 usec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>1860 usec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>6696.6k</t>
+          <t>6696.6k usec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>1669827.70</t>
+          <t>1669827.70 usec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2693 msec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>1272.23</t>
+          <t>1272.23 msec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1888 usec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2682.8k</t>
+          <t>2682.8k usec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>15779.13</t>
+          <t>15779.13 usec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18 msec</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2617 msec</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>1220.28</t>
+          <t>1220.28 msec</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>1337 usec</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>3111.3k</t>
+          <t>3111.3k usec</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>137542.26</t>
+          <t>137542.26 usec</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
